--- a/策划文档/数值用表/MAGIC_fuse.xlsx
+++ b/策划文档/数值用表/MAGIC_fuse.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="fuse_equip" sheetId="1" r:id="rId1"/>
-    <sheet name="fuse_gem" sheetId="2" r:id="rId2"/>
+    <sheet name="fuse" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -40,67 +39,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-{装备ID=数量，...}</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
 {物品ID=数量，...}</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-{宝石等级=数量，...}</t>
         </r>
       </text>
     </comment>
@@ -135,28 +74,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
-  <si>
-    <t>equip_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成需要装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>合成消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fuse_need_equip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fuse_cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,55 +104,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宝石等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_lv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1=5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{2=5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{3=5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{4=5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{5=5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{6=5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{7=5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{8=5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{9=5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1001=50}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuse_need_gem</t>
+    <t>物品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成需要物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuse_need_item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,8 +499,8 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -626,24 +513,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -659,13 +546,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -673,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -684,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -695,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -706,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -717,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -728,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -740,170 +627,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/策划文档/数值用表/MAGIC_fuse.xlsx
+++ b/策划文档/数值用表/MAGIC_fuse.xlsx
@@ -27,6 +27,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -36,6 +37,34 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、宝石合成
+2、装备晋升</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
   <si>
     <t>合成消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,14 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1=2,2=2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1001=50,1002=10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +138,211 @@
   </si>
   <si>
     <t>fuse_need_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6101=1,6101=1,6101=1,6101=1,6101=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1002=500}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1002=1000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1002=5000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1001=50}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1001=50}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6102=1,6102=1,6102=1,6102=1,6102=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6103=1,6103=1,6103=1,6103=1,6103=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6104=1,6104=1,6104=1,6104=1,6104=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6105=1,6105=1,6105=1,6105=1,6105=1}</t>
+  </si>
+  <si>
+    <t>合成类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuse_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6201=1,6201=1,6201=1,6201=1,6201=1}</t>
+  </si>
+  <si>
+    <t>{6202=1,6202=1,6202=1,6202=1,6202=1}</t>
+  </si>
+  <si>
+    <t>{6203=1,6203=1,6203=1,6203=1,6203=1}</t>
+  </si>
+  <si>
+    <t>{6204=1,6204=1,6204=1,6204=1,6204=1}</t>
+  </si>
+  <si>
+    <t>{6205=1,6205=1,6205=1,6205=1,6205=1}</t>
+  </si>
+  <si>
+    <t>{6301=1,6301=1,6301=1,6301=1,6301=1}</t>
+  </si>
+  <si>
+    <t>{6302=1,6302=1,6302=1,6302=1,6302=1}</t>
+  </si>
+  <si>
+    <t>{6303=1,6303=1,6303=1,6303=1,6303=1}</t>
+  </si>
+  <si>
+    <t>{6304=1,6304=1,6304=1,6304=1,6304=1}</t>
+  </si>
+  <si>
+    <t>{6305=1,6305=1,6305=1,6305=1,6305=1}</t>
+  </si>
+  <si>
+    <t>{6401=1,6401=1,6401=1,6401=1,6401=1}</t>
+  </si>
+  <si>
+    <t>{6402=1,6402=1,6402=1,6402=1,6402=1}</t>
+  </si>
+  <si>
+    <t>{6403=1,6403=1,6403=1,6403=1,6403=1}</t>
+  </si>
+  <si>
+    <t>{6404=1,6404=1,6404=1,6404=1,6404=1}</t>
+  </si>
+  <si>
+    <t>{6405=1,6405=1,6405=1,6405=1,6405=1}</t>
+  </si>
+  <si>
+    <t>{6501=1,6501=1,6501=1,6501=1,6501=1}</t>
+  </si>
+  <si>
+    <t>{6502=1,6502=1,6502=1,6502=1,6502=1}</t>
+  </si>
+  <si>
+    <t>{6503=1,6503=1,6503=1,6503=1,6503=1}</t>
+  </si>
+  <si>
+    <t>{6504=1,6504=1,6504=1,6504=1,6504=1}</t>
+  </si>
+  <si>
+    <t>{6505=1,6505=1,6505=1,6505=1,6505=1}</t>
+  </si>
+  <si>
+    <t>{70010=1,8001=1,8001=1,8001=1,8001=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{70011=1,8002=1,8002=1,8002=1,8002=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{70012=1,8003=1,8003=1,8003=1,8003=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{70013=1,8004=1,8004=1,8004=1,8004=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{70014=1,8005=1,8005=1,8005=1,8005=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{70015=1,8006=1,8006=1,8006=1,8006=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1002=5000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{70020=1,8011=1,8011=1,8011=1,8011=1}</t>
+  </si>
+  <si>
+    <t>{70021=1,8012=1,8012=1,8012=1,8012=1}</t>
+  </si>
+  <si>
+    <t>{70022=1,8013=1,8013=1,8013=1,8013=1}</t>
+  </si>
+  <si>
+    <t>{70023=1,8014=1,8014=1,8014=1,8014=1}</t>
+  </si>
+  <si>
+    <t>{70024=1,8015=1,8015=1,8015=1,8015=1}</t>
+  </si>
+  <si>
+    <t>{70025=1,8016=1,8016=1,8016=1,8016=1}</t>
+  </si>
+  <si>
+    <t>{70030=1,8021=1,8021=1,8021=1,8021=1}</t>
+  </si>
+  <si>
+    <t>{70031=1,8022=1,8022=1,8022=1,8022=1}</t>
+  </si>
+  <si>
+    <t>{70032=1,8023=1,8023=1,8023=1,8023=1}</t>
+  </si>
+  <si>
+    <t>{70033=1,8024=1,8024=1,8024=1,8024=1}</t>
+  </si>
+  <si>
+    <t>{70034=1,8025=1,8025=1,8025=1,8025=1}</t>
+  </si>
+  <si>
+    <t>{70035=1,8026=1,8026=1,8026=1,8026=1}</t>
+  </si>
+  <si>
+    <t>{70040=1,8031=1,8031=1,8031=1,8031=1}</t>
+  </si>
+  <si>
+    <t>{70041=1,8032=1,8032=1,8032=1,8032=1}</t>
+  </si>
+  <si>
+    <t>{70042=1,8033=1,8033=1,8033=1,8033=1}</t>
+  </si>
+  <si>
+    <t>{70043=1,8034=1,8034=1,8034=1,8034=1}</t>
+  </si>
+  <si>
+    <t>{70044=1,8035=1,8035=1,8035=1,8035=1}</t>
+  </si>
+  <si>
+    <t>{70045=1,8036=1,8036=1,8036=1,8036=1}</t>
+  </si>
+  <si>
+    <t>{1002=10000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1002=20000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1002=50000}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,19 +378,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -497,128 +710,985 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>6102</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>6103</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6104</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>6105</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>6106</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>6202</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>6203</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>6204</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>6205</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>6206</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>6302</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>6303</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>6304</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>6305</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>6306</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>6402</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>6403</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>6404</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>6405</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>6406</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>6502</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>6503</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>6504</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>6505</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>6506</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>70020</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>70021</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>70022</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>70023</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>70024</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>70025</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>70026</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>70027</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>70028</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>70029</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>70030</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>70031</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>70032</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>70033</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>70034</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>70035</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>70036</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>70037</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>70038</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>70039</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>70040</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>70041</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>70042</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>70043</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>70044</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>70045</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>70046</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>70047</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>70048</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>70049</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>70050</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>70051</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>70052</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>70053</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>70054</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>70055</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>70056</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>70057</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>70058</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>70059</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
